--- a/CV_Dukay.xlsx
+++ b/CV_Dukay.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUPER-FLINSTONES\Desktop\CV_Dukay\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://trw1-my.sharepoint.com/personal/aladar_dukay_zf_com/Documents/Desktop/CV new/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9533C08D-7DFA-48E8-AA5B-9907397052B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{9533C08D-7DFA-48E8-AA5B-9907397052B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9AD23FC-5B75-4BD0-81F3-F19042706ED4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12585" yWindow="3000" windowWidth="15480" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Personal" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">Skills!$A$1:$F$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3">Skills_dummies!$A$2:$F$3</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" concurrentManualCount="16"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -745,30 +750,6 @@
     <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/e23139a1313bc21bdbb523c394b55daecb03a28e/05%20photos/5_flag.png</t>
   </si>
   <si>
-    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/e23139a1313bc21bdbb523c394b55daecb03a28e/05%20photos/2_full.png</t>
-  </si>
-  <si>
-    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/e23139a1313bc21bdbb523c394b55daecb03a28e/05%20photos/3_full.png</t>
-  </si>
-  <si>
-    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/e23139a1313bc21bdbb523c394b55daecb03a28e/05%20photos/4_full.png</t>
-  </si>
-  <si>
-    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/e23139a1313bc21bdbb523c394b55daecb03a28e/05%20photos/5_full.png</t>
-  </si>
-  <si>
-    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/e23139a1313bc21bdbb523c394b55daecb03a28e/05%20photos/2_small.png</t>
-  </si>
-  <si>
-    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/e23139a1313bc21bdbb523c394b55daecb03a28e/05%20photos/3_small.png</t>
-  </si>
-  <si>
-    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/e23139a1313bc21bdbb523c394b55daecb03a28e/05%20photos/4_small.png</t>
-  </si>
-  <si>
-    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/e23139a1313bc21bdbb523c394b55daecb03a28e/05%20photos/5_small.png</t>
-  </si>
-  <si>
     <t>Tourette’s syndrome</t>
   </si>
   <si>
@@ -1253,6 +1234,30 @@
   </si>
   <si>
     <t>Celebrate 100th birthday by organizing first protest rally on Mars.</t>
+  </si>
+  <si>
+    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/201eac1b6162b192700bf8ac7f4da36bb414640b/05%20photos/2_full.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/201eac1b6162b192700bf8ac7f4da36bb414640b/05%20photos/2_small.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/201eac1b6162b192700bf8ac7f4da36bb414640b/05%20photos/3_full.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/201eac1b6162b192700bf8ac7f4da36bb414640b/05%20photos/3_small.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/201eac1b6162b192700bf8ac7f4da36bb414640b/05%20photos/4_full.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/201eac1b6162b192700bf8ac7f4da36bb414640b/05%20photos/4_small.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/201eac1b6162b192700bf8ac7f4da36bb414640b/05%20photos/5_full.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/201eac1b6162b192700bf8ac7f4da36bb414640b/05%20photos/5_small.png</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1267,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000000000"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Aptos Narrow"/>
@@ -1752,18 +1757,18 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.25" customWidth="1"/>
-    <col min="2" max="2" width="48.375" customWidth="1"/>
-    <col min="3" max="6" width="18.25" customWidth="1"/>
-    <col min="7" max="11" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="48.42578125" customWidth="1"/>
+    <col min="3" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="11" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>170</v>
       </c>
@@ -1783,7 +1788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25" customHeight="1">
+    <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1808,7 +1813,7 @@
         <v>Mgr. John Public CSc.</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25" customHeight="1">
+    <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1826,7 +1831,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+    <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1846,7 +1851,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25" customHeight="1">
+    <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1858,7 +1863,7 @@
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
     </row>
-    <row r="6" spans="1:6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1878,7 +1883,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25" customHeight="1">
+    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1894,7 +1899,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25" customHeight="1">
+    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -1914,7 +1919,7 @@
         <v>25157</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25" customHeight="1">
+    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>174</v>
       </c>
@@ -1934,7 +1939,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.25" customHeight="1">
+    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1954,7 +1959,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.25" customHeight="1">
+    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>228</v>
       </c>
@@ -1974,7 +1979,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.25" customHeight="1">
+    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1994,7 +1999,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.25" customHeight="1">
+    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -2014,7 +2019,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.25" customHeight="1">
+    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -2034,7 +2039,7 @@
         <v>27.187866051700201</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.25" customHeight="1">
+    <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -2054,7 +2059,7 @@
         <v>33.830976893117501</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.25" customHeight="1">
+    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
@@ -2074,7 +2079,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -2098,7 +2103,7 @@
         <v>+200123456790</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.25" customHeight="1">
+    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -2122,7 +2127,7 @@
         <v>https://www.linkedin.com/in/John-Public-dummy-link</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.25" customHeight="1">
+    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>207</v>
       </c>
@@ -2142,7 +2147,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.25" customHeight="1">
+    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>206</v>
       </c>
@@ -2162,7 +2167,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.25" customHeight="1">
+    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>214</v>
       </c>
@@ -2176,13 +2181,13 @@
         <v>219</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F21" s="32" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.25" customHeight="1">
+    <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>215</v>
       </c>
@@ -2202,7 +2207,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.25" customHeight="1">
+    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>222</v>
       </c>
@@ -2210,19 +2215,19 @@
         <v>224</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>235</v>
+        <v>397</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>236</v>
+        <v>399</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>237</v>
+        <v>401</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="14.25" customHeight="1">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>223</v>
       </c>
@@ -2230,100 +2235,100 @@
         <v>225</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>239</v>
+        <v>398</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>241</v>
+        <v>402</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="27" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="31" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -2343,17 +2348,17 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="4" width="16.75" customWidth="1"/>
-    <col min="5" max="7" width="19.375" customWidth="1"/>
-    <col min="8" max="8" width="22.25" customWidth="1"/>
-    <col min="9" max="12" width="7.625" customWidth="1"/>
+    <col min="3" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="9" max="12" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" customHeight="1">
+    <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>170</v>
       </c>
@@ -2379,7 +2384,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1">
+    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2405,7 +2410,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25" customHeight="1">
+    <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2431,7 +2436,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25" customHeight="1">
+    <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2455,7 +2460,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25" customHeight="1">
+    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2481,7 +2486,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" customHeight="1">
+    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2507,7 +2512,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25" customHeight="1">
+    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2533,7 +2538,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2559,7 +2564,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25" customHeight="1">
+    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2585,7 +2590,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.25" customHeight="1">
+    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2611,7 +2616,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25" customHeight="1">
+    <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2637,7 +2642,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25" customHeight="1">
+    <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2663,7 +2668,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25" customHeight="1">
+    <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2689,7 +2694,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25" customHeight="1">
+    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2715,7 +2720,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.25" customHeight="1">
+    <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2741,7 +2746,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.25" customHeight="1">
+    <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2767,7 +2772,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.25" customHeight="1">
+    <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2793,7 +2798,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.25" customHeight="1">
+    <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2819,7 +2824,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.25" customHeight="1">
+    <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2845,7 +2850,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14.25" customHeight="1">
+    <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2871,7 +2876,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.25" customHeight="1">
+    <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2897,7 +2902,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.25" customHeight="1">
+    <row r="22" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2923,7 +2928,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.25" customHeight="1">
+    <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2947,7 +2952,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.25" customHeight="1">
+    <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32">
         <v>2</v>
       </c>
@@ -2968,10 +2973,10 @@
         <v>14</v>
       </c>
       <c r="H24" s="32" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="14.25" customHeight="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32">
         <v>3</v>
       </c>
@@ -2992,10 +2997,10 @@
         <v>14</v>
       </c>
       <c r="H25" s="32" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="14.25" customHeight="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32">
         <v>4</v>
       </c>
@@ -3016,10 +3021,10 @@
         <v>14</v>
       </c>
       <c r="H26" s="32" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="14.25" customHeight="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32">
         <v>5</v>
       </c>
@@ -3040,10 +3045,10 @@
         <v>14</v>
       </c>
       <c r="H27" s="32" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="14.25" customHeight="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32">
         <v>2</v>
       </c>
@@ -3065,13 +3070,13 @@
         <v>25081</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H28" s="32" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="14.25" customHeight="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32">
         <v>3</v>
       </c>
@@ -3093,13 +3098,13 @@
         <v>45535</v>
       </c>
       <c r="G29" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="H29" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="H29" s="32" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="14.25" customHeight="1">
+    </row>
+    <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="32">
         <v>4</v>
       </c>
@@ -3121,13 +3126,13 @@
         <v>34577</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="H30" s="32" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="14.25" customHeight="1">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="32">
         <v>5</v>
       </c>
@@ -3149,13 +3154,13 @@
         <v>33481</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="H31" s="32" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="14.25" customHeight="1">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="32">
         <v>2</v>
       </c>
@@ -3175,13 +3180,13 @@
         <v>26664</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="H32" s="32" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="14.25" customHeight="1">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="32">
         <v>2</v>
       </c>
@@ -3201,13 +3206,13 @@
         <v>30132</v>
       </c>
       <c r="G33" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="H33" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="H33" s="32" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="14.25" customHeight="1">
+    </row>
+    <row r="34" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="32">
         <v>2</v>
       </c>
@@ -3227,13 +3232,13 @@
         <v>33969</v>
       </c>
       <c r="G34" s="32" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="H34" s="32" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="14.25" customHeight="1">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="32">
         <v>2</v>
       </c>
@@ -3251,13 +3256,13 @@
       </c>
       <c r="F35" s="36"/>
       <c r="G35" s="32" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="H35" s="32" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="14.25" customHeight="1">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="32">
         <v>3</v>
       </c>
@@ -3275,13 +3280,13 @@
       </c>
       <c r="F36" s="36"/>
       <c r="G36" s="32" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="H36" s="32" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="14.25" customHeight="1">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="32">
         <v>4</v>
       </c>
@@ -3301,13 +3306,13 @@
         <v>35976</v>
       </c>
       <c r="G37" s="32" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="H37" s="32" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="14.25" customHeight="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="32">
         <v>4</v>
       </c>
@@ -3327,13 +3332,13 @@
         <v>37986</v>
       </c>
       <c r="G38" s="32" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="H38" s="32" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="14.25" customHeight="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="32">
         <v>4</v>
       </c>
@@ -3353,13 +3358,13 @@
         <v>41090</v>
       </c>
       <c r="G39" s="32" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H39" s="32" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="14.25" customHeight="1">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="32">
         <v>4</v>
       </c>
@@ -3377,13 +3382,13 @@
       </c>
       <c r="F40" s="36"/>
       <c r="G40" s="32" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="H40" s="32" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="14.25" customHeight="1">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="32">
         <v>5</v>
       </c>
@@ -3403,13 +3408,13 @@
         <v>35430</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="H41" s="32" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="14.25" customHeight="1">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="32">
         <v>5</v>
       </c>
@@ -3429,13 +3434,13 @@
         <v>38533</v>
       </c>
       <c r="G42" s="32" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="H42" s="32" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="14.25" customHeight="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="32">
         <v>5</v>
       </c>
@@ -3455,13 +3460,13 @@
         <v>42369</v>
       </c>
       <c r="G43" s="32" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="H43" s="32" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="14.25" customHeight="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="32">
         <v>5</v>
       </c>
@@ -3479,337 +3484,337 @@
       </c>
       <c r="F44" s="36"/>
       <c r="G44" s="32" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="H44" s="32" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="14.25" customHeight="1">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
     </row>
-    <row r="46" spans="1:8" ht="14.25" customHeight="1">
+    <row r="46" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
     </row>
-    <row r="47" spans="1:8" ht="14.25" customHeight="1">
+    <row r="47" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
     </row>
-    <row r="48" spans="1:8" ht="14.25" customHeight="1">
+    <row r="48" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
     </row>
-    <row r="49" spans="3:6" ht="14.25" customHeight="1">
+    <row r="49" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
     </row>
-    <row r="50" spans="3:6" ht="14.25" customHeight="1">
+    <row r="50" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
     </row>
-    <row r="51" spans="3:6" ht="14.25" customHeight="1">
+    <row r="51" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
     </row>
-    <row r="52" spans="3:6" ht="14.25" customHeight="1">
+    <row r="52" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
     </row>
-    <row r="53" spans="3:6" ht="14.25" customHeight="1">
+    <row r="53" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
     </row>
-    <row r="54" spans="3:6" ht="14.25" customHeight="1">
+    <row r="54" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
     </row>
-    <row r="55" spans="3:6" ht="14.25" customHeight="1">
+    <row r="55" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
     </row>
-    <row r="56" spans="3:6" ht="14.25" customHeight="1">
+    <row r="56" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
     </row>
-    <row r="57" spans="3:6" ht="14.25" customHeight="1">
+    <row r="57" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
     </row>
-    <row r="58" spans="3:6" ht="14.25" customHeight="1">
+    <row r="58" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
     </row>
-    <row r="59" spans="3:6" ht="14.25" customHeight="1">
+    <row r="59" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
     </row>
-    <row r="60" spans="3:6" ht="14.25" customHeight="1">
+    <row r="60" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
     </row>
-    <row r="61" spans="3:6" ht="14.25" customHeight="1">
+    <row r="61" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
     </row>
-    <row r="62" spans="3:6" ht="14.25" customHeight="1">
+    <row r="62" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
     </row>
-    <row r="63" spans="3:6" ht="14.25" customHeight="1">
+    <row r="63" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
     </row>
-    <row r="64" spans="3:6" ht="14.25" customHeight="1">
+    <row r="64" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
     </row>
-    <row r="65" spans="3:6" ht="14.25" customHeight="1">
+    <row r="65" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
     </row>
-    <row r="66" spans="3:6" ht="14.25" customHeight="1">
+    <row r="66" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
     </row>
-    <row r="67" spans="3:6" ht="14.25" customHeight="1">
+    <row r="67" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
     </row>
-    <row r="68" spans="3:6" ht="14.25" customHeight="1">
+    <row r="68" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
     </row>
-    <row r="69" spans="3:6" ht="14.25" customHeight="1">
+    <row r="69" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
     </row>
-    <row r="70" spans="3:6" ht="14.25" customHeight="1">
+    <row r="70" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
     </row>
-    <row r="71" spans="3:6" ht="14.25" customHeight="1">
+    <row r="71" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
     </row>
-    <row r="72" spans="3:6" ht="14.25" customHeight="1">
+    <row r="72" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
     </row>
-    <row r="73" spans="3:6" ht="14.25" customHeight="1">
+    <row r="73" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
     </row>
-    <row r="74" spans="3:6" ht="14.25" customHeight="1">
+    <row r="74" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
     </row>
-    <row r="75" spans="3:6" ht="14.25" customHeight="1">
+    <row r="75" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
     </row>
-    <row r="76" spans="3:6" ht="14.25" customHeight="1">
+    <row r="76" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
     </row>
-    <row r="77" spans="3:6" ht="14.25" customHeight="1">
+    <row r="77" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
     </row>
-    <row r="78" spans="3:6" ht="14.25" customHeight="1">
+    <row r="78" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
     </row>
-    <row r="79" spans="3:6" ht="14.25" customHeight="1">
+    <row r="79" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
     </row>
-    <row r="80" spans="3:6" ht="14.25" customHeight="1">
+    <row r="80" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
     </row>
-    <row r="81" spans="3:6" ht="14.25" customHeight="1">
+    <row r="81" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
     </row>
-    <row r="82" spans="3:6" ht="14.25" customHeight="1">
+    <row r="82" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
     </row>
-    <row r="83" spans="3:6" ht="14.25" customHeight="1">
+    <row r="83" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
     </row>
-    <row r="84" spans="3:6" ht="14.25" customHeight="1">
+    <row r="84" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
     </row>
-    <row r="85" spans="3:6" ht="14.25" customHeight="1">
+    <row r="85" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
     </row>
-    <row r="86" spans="3:6" ht="14.25" customHeight="1">
+    <row r="86" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
     </row>
-    <row r="87" spans="3:6" ht="14.25" customHeight="1">
+    <row r="87" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
     </row>
-    <row r="88" spans="3:6" ht="14.25" customHeight="1">
+    <row r="88" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
     </row>
-    <row r="89" spans="3:6" ht="14.25" customHeight="1">
+    <row r="89" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
     </row>
-    <row r="90" spans="3:6" ht="14.25" customHeight="1">
+    <row r="90" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
     </row>
-    <row r="91" spans="3:6" ht="14.25" customHeight="1">
+    <row r="91" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
     </row>
-    <row r="92" spans="3:6" ht="14.25" customHeight="1">
+    <row r="92" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
     </row>
-    <row r="93" spans="3:6" ht="14.25" customHeight="1">
+    <row r="93" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
     </row>
-    <row r="94" spans="3:6" ht="14.25" customHeight="1">
+    <row r="94" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
     </row>
-    <row r="95" spans="3:6" ht="14.25" customHeight="1">
+    <row r="95" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
     </row>
-    <row r="96" spans="3:6" ht="14.25" customHeight="1">
+    <row r="96" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
     </row>
-    <row r="97" spans="3:6" ht="14.25" customHeight="1">
+    <row r="97" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
     </row>
-    <row r="98" spans="3:6" ht="14.25" customHeight="1">
+    <row r="98" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
     </row>
-    <row r="99" spans="3:6" ht="14.25" customHeight="1">
+    <row r="99" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
       <c r="E99" s="9"/>
@@ -3831,16 +3836,16 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
-    <col min="3" max="5" width="19.75" customWidth="1"/>
-    <col min="6" max="6" width="22.25" customWidth="1"/>
-    <col min="7" max="12" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="12" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" customHeight="1">
+    <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>170</v>
       </c>
@@ -3860,7 +3865,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25" customHeight="1">
+    <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3881,7 +3886,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25" customHeight="1">
+    <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3889,7 +3894,7 @@
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -3902,7 +3907,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+    <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3923,7 +3928,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25" customHeight="1">
+    <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3944,7 +3949,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3965,7 +3970,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25" customHeight="1">
+    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3986,7 +3991,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25" customHeight="1">
+    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4007,7 +4012,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25" customHeight="1">
+    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -4028,7 +4033,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.25" customHeight="1">
+    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -4049,7 +4054,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.25" customHeight="1">
+    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -4070,7 +4075,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.25" customHeight="1">
+    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -4091,7 +4096,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.25" customHeight="1">
+    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -4112,7 +4117,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.25" customHeight="1">
+    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -4133,7 +4138,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.25" customHeight="1">
+    <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -4154,7 +4159,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.25" customHeight="1">
+    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -4175,7 +4180,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -4196,7 +4201,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.25" customHeight="1">
+    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -4217,7 +4222,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.25" customHeight="1">
+    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -4238,7 +4243,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.25" customHeight="1">
+    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -4259,7 +4264,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.25" customHeight="1">
+    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -4280,7 +4285,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.25" customHeight="1">
+    <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -4301,7 +4306,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.25" customHeight="1">
+    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -4322,7 +4327,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.25" customHeight="1">
+    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -4343,7 +4348,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.25" customHeight="1">
+    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -4364,7 +4369,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.25" customHeight="1">
+    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -4385,7 +4390,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.25" customHeight="1">
+    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -4393,7 +4398,7 @@
         <v>124</v>
       </c>
       <c r="C27" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D27">
         <v>10</v>
@@ -4406,7 +4411,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.25" customHeight="1">
+    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -4427,7 +4432,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.25" customHeight="1">
+    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -4448,7 +4453,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.25" customHeight="1">
+    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -4469,7 +4474,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.25" customHeight="1">
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -4490,7 +4495,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.25" customHeight="1">
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -4511,7 +4516,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.25" customHeight="1">
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -4532,7 +4537,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14.25" customHeight="1">
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -4553,7 +4558,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14.25" customHeight="1">
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -4574,7 +4579,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14.25" customHeight="1">
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -4595,70 +4600,70 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="38" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="39" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="40" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="41" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="42" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="43" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="44" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="45" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="46" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="47" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="48" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:F2" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -4675,17 +4680,17 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="5" width="19.75" customWidth="1"/>
-    <col min="6" max="6" width="22.25" customWidth="1"/>
-    <col min="7" max="12" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="12" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -4693,7 +4698,7 @@
       <c r="E1" s="34"/>
       <c r="F1" s="34"/>
     </row>
-    <row r="2" spans="1:6" ht="14.25" customHeight="1">
+    <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>22</v>
       </c>
@@ -4713,7 +4718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25" customHeight="1">
+    <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>75</v>
       </c>
@@ -4722,46 +4727,46 @@
       </c>
       <c r="C3" s="34">
         <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D3" s="34">
         <f t="shared" ref="D3:F16" ca="1" si="0">RANDBETWEEN(1,10)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F3" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>75</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C4" s="34">
         <f t="shared" ref="C4:C16" ca="1" si="1">RANDBETWEEN(1,10)</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D4" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F4" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25" customHeight="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>75</v>
       </c>
@@ -4774,27 +4779,27 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F5" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.25" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>75</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C6" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D6" s="34">
         <f t="shared" ca="1" si="0"/>
@@ -4802,14 +4807,14 @@
       </c>
       <c r="E6" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F6" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.25" customHeight="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
         <v>75</v>
       </c>
@@ -4818,22 +4823,22 @@
       </c>
       <c r="C7" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E7" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F7" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.25" customHeight="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>75</v>
       </c>
@@ -4842,75 +4847,75 @@
       </c>
       <c r="C8" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D8" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E8" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F8" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>75</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C9" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D9" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E9" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.25" customHeight="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>95</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C10" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E10" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="14.25" customHeight="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>95</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C11" s="34">
         <v>1</v>
@@ -4925,7 +4930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.25" customHeight="1">
+    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>95</v>
       </c>
@@ -4934,11 +4939,11 @@
       </c>
       <c r="C12" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D12" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E12" s="34">
         <f t="shared" ca="1" si="0"/>
@@ -4946,10 +4951,10 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.25" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>95</v>
       </c>
@@ -4958,22 +4963,22 @@
       </c>
       <c r="C13" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E13" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F13" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.25" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>95</v>
       </c>
@@ -4982,7 +4987,7 @@
       </c>
       <c r="C14" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" s="34">
         <f t="shared" ca="1" si="0"/>
@@ -4990,14 +4995,14 @@
       </c>
       <c r="E14" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>95</v>
       </c>
@@ -5006,22 +5011,22 @@
       </c>
       <c r="C15" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D15" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E15" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="14.25" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>95</v>
       </c>
@@ -5030,22 +5035,22 @@
       </c>
       <c r="C16" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E16" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F16" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>116</v>
       </c>
@@ -5065,7 +5070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.25" customHeight="1">
+    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
         <v>116</v>
       </c>
@@ -5085,7 +5090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.25" customHeight="1">
+    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
         <v>116</v>
       </c>
@@ -5105,12 +5110,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.25" customHeight="1">
+    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
         <v>116</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C20" s="34">
         <v>1</v>
@@ -5125,7 +5130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.25" customHeight="1">
+    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
         <v>124</v>
       </c>
@@ -5134,7 +5139,7 @@
       </c>
       <c r="C21" s="34">
         <f t="shared" ref="C21:F31" ca="1" si="2">RANDBETWEEN(1,10)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D21" s="34">
         <f t="shared" ca="1" si="2"/>
@@ -5142,18 +5147,18 @@
       </c>
       <c r="E21" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F21" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.25" customHeight="1">
+    <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
         <v>124</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C22" s="34">
         <f t="shared" ca="1" si="2"/>
@@ -5165,27 +5170,27 @@
       </c>
       <c r="E22" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F22" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="14.25" customHeight="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
         <v>124</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C23" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D23" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E23" s="34">
         <f t="shared" ca="1" si="2"/>
@@ -5193,10 +5198,10 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="s">
         <v>124</v>
       </c>
@@ -5205,55 +5210,55 @@
       </c>
       <c r="C24" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D24" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E24" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F24" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="14.25" customHeight="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="34" t="s">
         <v>132</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C25" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D25" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E25" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F25" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="14.25" customHeight="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="s">
         <v>132</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C26" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D26" s="34">
         <f t="shared" ca="1" si="2"/>
@@ -5261,14 +5266,14 @@
       </c>
       <c r="E26" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F26" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="14.25" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
         <v>132</v>
       </c>
@@ -5277,27 +5282,27 @@
       </c>
       <c r="C27" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D27" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E27" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F27" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="14.25" customHeight="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
         <v>132</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C28" s="34">
         <f t="shared" ca="1" si="2"/>
@@ -5305,18 +5310,18 @@
       </c>
       <c r="D28" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E28" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="14.25" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="s">
         <v>132</v>
       </c>
@@ -5325,55 +5330,55 @@
       </c>
       <c r="C29" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D29" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E29" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F29" s="34">
         <f t="shared" ca="1" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.25" customHeight="1">
+    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="s">
         <v>132</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C30" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D30" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E30" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F30" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="14.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
         <v>132</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C31" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D31" s="34">
         <f t="shared" ca="1" si="2"/>
@@ -5381,77 +5386,77 @@
       </c>
       <c r="E31" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F31" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A2:F3" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -5468,16 +5473,16 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="19.75" customWidth="1"/>
-    <col min="4" max="4" width="68.625" customWidth="1"/>
-    <col min="5" max="12" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="68.5703125" customWidth="1"/>
+    <col min="5" max="12" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" customHeight="1">
+    <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>170</v>
       </c>
@@ -5491,7 +5496,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.25" customHeight="1">
+    <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -5505,7 +5510,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.25" customHeight="1">
+    <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>1</v>
       </c>
@@ -5519,7 +5524,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>1</v>
       </c>
@@ -5533,7 +5538,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.25" customHeight="1">
+    <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>1</v>
       </c>
@@ -5547,7 +5552,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.25" customHeight="1">
+    <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>1</v>
       </c>
@@ -5561,7 +5566,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.25" customHeight="1">
+    <row r="7" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>1</v>
       </c>
@@ -5575,7 +5580,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.25" customHeight="1">
+    <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>1</v>
       </c>
@@ -5589,7 +5594,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.25" customHeight="1">
+    <row r="9" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>1</v>
       </c>
@@ -5603,7 +5608,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.25" customHeight="1">
+    <row r="10" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>1</v>
       </c>
@@ -5611,13 +5616,13 @@
         <v>46569</v>
       </c>
       <c r="C10" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.25" customHeight="1">
+    <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>1</v>
       </c>
@@ -5631,7 +5636,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.25" customHeight="1">
+    <row r="12" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>1</v>
       </c>
@@ -5645,7 +5650,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.25" customHeight="1">
+    <row r="13" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>1</v>
       </c>
@@ -5659,7 +5664,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.25" customHeight="1">
+    <row r="14" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>1</v>
       </c>
@@ -5673,7 +5678,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.25" customHeight="1">
+    <row r="15" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>1</v>
       </c>
@@ -5687,7 +5692,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.25" customHeight="1">
+    <row r="16" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37">
         <v>2</v>
       </c>
@@ -5695,13 +5700,13 @@
         <v>45809</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="14.25" customHeight="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37">
         <v>2</v>
       </c>
@@ -5709,13 +5714,13 @@
         <v>45870</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.25" customHeight="1">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="37">
         <v>2</v>
       </c>
@@ -5723,13 +5728,13 @@
         <v>45931</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="14.25" customHeight="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37">
         <v>2</v>
       </c>
@@ -5737,13 +5742,13 @@
         <v>45962</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="14.25" customHeight="1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37">
         <v>2</v>
       </c>
@@ -5751,13 +5756,13 @@
         <v>45992</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="14.25" customHeight="1">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37">
         <v>2</v>
       </c>
@@ -5765,13 +5770,13 @@
         <v>46023</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="14.25" customHeight="1">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37">
         <v>2</v>
       </c>
@@ -5779,13 +5784,13 @@
         <v>46113</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="14.25" customHeight="1">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37">
         <v>2</v>
       </c>
@@ -5793,13 +5798,13 @@
         <v>46388</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="14.25" customHeight="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="37">
         <v>2</v>
       </c>
@@ -5807,13 +5812,13 @@
         <v>46569</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="14.25" customHeight="1">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37">
         <v>2</v>
       </c>
@@ -5821,13 +5826,13 @@
         <v>46753</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="14.25" customHeight="1">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37">
         <v>2</v>
       </c>
@@ -5835,13 +5840,13 @@
         <v>47119</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="14.25" customHeight="1">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37">
         <v>2</v>
       </c>
@@ -5849,13 +5854,13 @@
         <v>50041</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="14.25" customHeight="1">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="37">
         <v>2</v>
       </c>
@@ -5863,13 +5868,13 @@
         <v>53172</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="14.25" customHeight="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37">
         <v>2</v>
       </c>
@@ -5877,13 +5882,13 @@
         <v>56615</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="14.25" customHeight="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="37">
         <v>3</v>
       </c>
@@ -5891,13 +5896,13 @@
         <v>45809</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="14.25" customHeight="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="37">
         <v>3</v>
       </c>
@@ -5905,13 +5910,13 @@
         <v>45870</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="14.25" customHeight="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="37">
         <v>3</v>
       </c>
@@ -5919,13 +5924,13 @@
         <v>45931</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="14.25" customHeight="1">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="37">
         <v>3</v>
       </c>
@@ -5933,13 +5938,13 @@
         <v>45962</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="14.25" customHeight="1">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="37">
         <v>3</v>
       </c>
@@ -5947,13 +5952,13 @@
         <v>45992</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="14.25" customHeight="1">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="37">
         <v>3</v>
       </c>
@@ -5961,13 +5966,13 @@
         <v>46023</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="14.25" customHeight="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="37">
         <v>3</v>
       </c>
@@ -5975,13 +5980,13 @@
         <v>46113</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="14.25" customHeight="1">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="37">
         <v>3</v>
       </c>
@@ -5989,13 +5994,13 @@
         <v>46388</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="14.25" customHeight="1">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="37">
         <v>3</v>
       </c>
@@ -6003,13 +6008,13 @@
         <v>46569</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="14.25" customHeight="1">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="37">
         <v>3</v>
       </c>
@@ -6017,13 +6022,13 @@
         <v>46753</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="14.25" customHeight="1">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="37">
         <v>3</v>
       </c>
@@ -6031,13 +6036,13 @@
         <v>47119</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="14.25" customHeight="1">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="37">
         <v>3</v>
       </c>
@@ -6045,13 +6050,13 @@
         <v>50041</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="14.25" customHeight="1">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="37">
         <v>3</v>
       </c>
@@ -6059,13 +6064,13 @@
         <v>56615</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="14.25" customHeight="1">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="37">
         <v>3</v>
       </c>
@@ -6073,13 +6078,13 @@
         <v>70339</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="14.25" customHeight="1">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="37">
         <v>4</v>
       </c>
@@ -6087,13 +6092,13 @@
         <v>45809</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="14.25" customHeight="1">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="37">
         <v>4</v>
       </c>
@@ -6101,13 +6106,13 @@
         <v>45870</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="14.25" customHeight="1">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="37">
         <v>4</v>
       </c>
@@ -6115,13 +6120,13 @@
         <v>45931</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="14.25" customHeight="1">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="37">
         <v>4</v>
       </c>
@@ -6129,13 +6134,13 @@
         <v>45962</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="14.25" customHeight="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="37">
         <v>4</v>
       </c>
@@ -6143,13 +6148,13 @@
         <v>45992</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="14.25" customHeight="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="37">
         <v>4</v>
       </c>
@@ -6157,13 +6162,13 @@
         <v>46023</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="14.25" customHeight="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="37">
         <v>4</v>
       </c>
@@ -6171,13 +6176,13 @@
         <v>46113</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="14.25" customHeight="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="37">
         <v>4</v>
       </c>
@@ -6185,13 +6190,13 @@
         <v>46388</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="14.25" customHeight="1">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="37">
         <v>4</v>
       </c>
@@ -6199,13 +6204,13 @@
         <v>46569</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="14.25" customHeight="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="37">
         <v>4</v>
       </c>
@@ -6213,13 +6218,13 @@
         <v>46753</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="14.25" customHeight="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="37">
         <v>4</v>
       </c>
@@ -6227,13 +6232,13 @@
         <v>47119</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="14.25" customHeight="1">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="37">
         <v>4</v>
       </c>
@@ -6241,13 +6246,13 @@
         <v>50041</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="14.25" customHeight="1">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="37">
         <v>4</v>
       </c>
@@ -6255,13 +6260,13 @@
         <v>56615</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="14.25" customHeight="1">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="37">
         <v>4</v>
       </c>
@@ -6269,13 +6274,13 @@
         <v>62668</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="14.25" customHeight="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="37">
         <v>5</v>
       </c>
@@ -6283,13 +6288,13 @@
         <v>45809</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="14.25" customHeight="1">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="37">
         <v>5</v>
       </c>
@@ -6297,13 +6302,13 @@
         <v>45870</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="14.25" customHeight="1">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="37">
         <v>5</v>
       </c>
@@ -6311,13 +6316,13 @@
         <v>45931</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D60" s="32" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="14.25" customHeight="1">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="37">
         <v>5</v>
       </c>
@@ -6325,13 +6330,13 @@
         <v>45962</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="14.25" customHeight="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="37">
         <v>5</v>
       </c>
@@ -6339,13 +6344,13 @@
         <v>45992</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="14.25" customHeight="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="37">
         <v>5</v>
       </c>
@@ -6353,13 +6358,13 @@
         <v>46023</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="14.25" customHeight="1">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="37">
         <v>5</v>
       </c>
@@ -6367,13 +6372,13 @@
         <v>46113</v>
       </c>
       <c r="C64" s="32" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D64" s="32" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="14.25" customHeight="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="37">
         <v>5</v>
       </c>
@@ -6381,13 +6386,13 @@
         <v>46388</v>
       </c>
       <c r="C65" s="32" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="D65" s="32" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="14.25" customHeight="1">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="37">
         <v>5</v>
       </c>
@@ -6395,13 +6400,13 @@
         <v>46569</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="14.25" customHeight="1">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="37">
         <v>5</v>
       </c>
@@ -6409,13 +6414,13 @@
         <v>46753</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="D67" s="32" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="14.25" customHeight="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="37">
         <v>5</v>
       </c>
@@ -6423,13 +6428,13 @@
         <v>47119</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="D68" s="32" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="14.25" customHeight="1">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="37">
         <v>5</v>
       </c>
@@ -6437,13 +6442,13 @@
         <v>50041</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="D69" s="32" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="14.25" customHeight="1">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="37">
         <v>5</v>
       </c>
@@ -6451,13 +6456,13 @@
         <v>56615</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D70" s="32" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="14.25" customHeight="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="37">
         <v>5</v>
       </c>
@@ -6465,125 +6470,125 @@
         <v>61573</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="D71" s="32" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="14.25" customHeight="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="20"/>
       <c r="B72" s="9"/>
     </row>
-    <row r="73" spans="1:4" ht="14.25" customHeight="1">
+    <row r="73" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="20"/>
       <c r="B73" s="9"/>
     </row>
-    <row r="74" spans="1:4" ht="14.25" customHeight="1">
+    <row r="74" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="20"/>
       <c r="B74" s="9"/>
     </row>
-    <row r="75" spans="1:4" ht="14.25" customHeight="1">
+    <row r="75" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="20"/>
       <c r="B75" s="9"/>
     </row>
-    <row r="76" spans="1:4" ht="14.25" customHeight="1">
+    <row r="76" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="20"/>
       <c r="B76" s="9"/>
     </row>
-    <row r="77" spans="1:4" ht="14.25" customHeight="1">
+    <row r="77" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="20"/>
       <c r="B77" s="9"/>
     </row>
-    <row r="78" spans="1:4" ht="14.25" customHeight="1">
+    <row r="78" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="20"/>
       <c r="B78" s="9"/>
     </row>
-    <row r="79" spans="1:4" ht="14.25" customHeight="1">
+    <row r="79" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="20"/>
       <c r="B79" s="9"/>
     </row>
-    <row r="80" spans="1:4" ht="14.25" customHeight="1">
+    <row r="80" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="20"/>
       <c r="B80" s="9"/>
     </row>
-    <row r="81" spans="1:2" ht="14.25" customHeight="1">
+    <row r="81" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="20"/>
       <c r="B81" s="9"/>
     </row>
-    <row r="82" spans="1:2" ht="14.25" customHeight="1">
+    <row r="82" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="20"/>
       <c r="B82" s="9"/>
     </row>
-    <row r="83" spans="1:2" ht="14.25" customHeight="1">
+    <row r="83" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="20"/>
       <c r="B83" s="9"/>
     </row>
-    <row r="84" spans="1:2" ht="14.25" customHeight="1">
+    <row r="84" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="20"/>
       <c r="B84" s="9"/>
     </row>
-    <row r="85" spans="1:2" ht="14.25" customHeight="1">
+    <row r="85" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="20"/>
       <c r="B85" s="9"/>
     </row>
-    <row r="86" spans="1:2" ht="14.25" customHeight="1">
+    <row r="86" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="20"/>
       <c r="B86" s="9"/>
     </row>
-    <row r="87" spans="1:2" ht="14.25" customHeight="1">
+    <row r="87" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="20"/>
       <c r="B87" s="9"/>
     </row>
-    <row r="88" spans="1:2" ht="14.25" customHeight="1">
+    <row r="88" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="20"/>
       <c r="B88" s="9"/>
     </row>
-    <row r="89" spans="1:2" ht="14.25" customHeight="1">
+    <row r="89" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="20"/>
       <c r="B89" s="9"/>
     </row>
-    <row r="90" spans="1:2" ht="14.25" customHeight="1">
+    <row r="90" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="20"/>
       <c r="B90" s="9"/>
     </row>
-    <row r="91" spans="1:2" ht="14.25" customHeight="1">
+    <row r="91" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="20"/>
       <c r="B91" s="9"/>
     </row>
-    <row r="92" spans="1:2" ht="14.25" customHeight="1">
+    <row r="92" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="20"/>
       <c r="B92" s="9"/>
     </row>
-    <row r="93" spans="1:2" ht="14.25" customHeight="1">
+    <row r="93" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="20"/>
       <c r="B93" s="9"/>
     </row>
-    <row r="94" spans="1:2" ht="14.25" customHeight="1">
+    <row r="94" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="20"/>
       <c r="B94" s="9"/>
     </row>
-    <row r="95" spans="1:2" ht="14.25" customHeight="1">
+    <row r="95" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="20"/>
       <c r="B95" s="9"/>
     </row>
-    <row r="96" spans="1:2" ht="14.25" customHeight="1">
+    <row r="96" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="20"/>
       <c r="B96" s="9"/>
     </row>
-    <row r="97" spans="1:2" ht="14.25" customHeight="1">
+    <row r="97" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="20"/>
       <c r="B97" s="9"/>
     </row>
-    <row r="98" spans="1:2" ht="14.25" customHeight="1">
+    <row r="98" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="20"/>
       <c r="B98" s="9"/>
     </row>
-    <row r="99" spans="1:2" ht="14.25" customHeight="1">
+    <row r="99" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="20"/>
       <c r="B99" s="9"/>
     </row>
-    <row r="100" spans="1:2" ht="14.25" customHeight="1">
+    <row r="100" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="20"/>
       <c r="B100" s="9"/>
     </row>

--- a/CV_Dukay.xlsx
+++ b/CV_Dukay.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://trw1-my.sharepoint.com/personal/aladar_dukay_zf_com/Documents/Desktop/CV new/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{9533C08D-7DFA-48E8-AA5B-9907397052B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9AD23FC-5B75-4BD0-81F3-F19042706ED4}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{9533C08D-7DFA-48E8-AA5B-9907397052B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{217018FF-63BB-4C58-B4E1-EED448366DA8}"/>
   <bookViews>
-    <workbookView xWindow="12585" yWindow="3000" windowWidth="15480" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15480" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Personal" sheetId="1" r:id="rId1"/>
@@ -720,9 +720,6 @@
     <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/ef3a10170e98b0ed18f96c626a7902af5a3d797d/05%20photos/1_Dukay_full.png</t>
   </si>
   <si>
-    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/ef3a10170e98b0ed18f96c626a7902af5a3d797d/05%20photos/1_Dukay_small.png</t>
-  </si>
-  <si>
     <t>Japanese</t>
   </si>
   <si>
@@ -1258,6 +1255,9 @@
   </si>
   <si>
     <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/201eac1b6162b192700bf8ac7f4da36bb414640b/05%20photos/5_small.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Ing-Aladar-Dukay/CV_Dukay/blob/7bec9515fae1951d25923a86120cf29a5b3aba34/05%20photos/1_Dukay_small.png</t>
   </si>
 </sst>
 </file>
@@ -1757,7 +1757,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1947,7 +1947,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>193</v>
@@ -1961,22 +1961,22 @@
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="D11" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="E11" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="F11" s="24" t="s">
         <v>233</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1990,7 +1990,7 @@
         <v>197</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>198</v>
@@ -2007,7 +2007,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>200</v>
@@ -2181,7 +2181,7 @@
         <v>219</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F21" s="32" t="s">
         <v>218</v>
@@ -2215,16 +2215,16 @@
         <v>224</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2232,19 +2232,19 @@
         <v>223</v>
       </c>
       <c r="B24" t="s">
-        <v>225</v>
+        <v>404</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2973,7 +2973,7 @@
         <v>14</v>
       </c>
       <c r="H24" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2997,7 +2997,7 @@
         <v>14</v>
       </c>
       <c r="H25" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3021,7 +3021,7 @@
         <v>14</v>
       </c>
       <c r="H26" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3045,7 +3045,7 @@
         <v>14</v>
       </c>
       <c r="H27" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3070,10 +3070,10 @@
         <v>25081</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H28" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3098,10 +3098,10 @@
         <v>45535</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H29" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3126,10 +3126,10 @@
         <v>34577</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H30" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3154,10 +3154,10 @@
         <v>33481</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H31" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3180,10 +3180,10 @@
         <v>26664</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H32" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3206,10 +3206,10 @@
         <v>30132</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H33" s="32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3232,10 +3232,10 @@
         <v>33969</v>
       </c>
       <c r="G34" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H34" s="32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3256,10 +3256,10 @@
       </c>
       <c r="F35" s="36"/>
       <c r="G35" s="32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H35" s="32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3280,10 +3280,10 @@
       </c>
       <c r="F36" s="36"/>
       <c r="G36" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H36" s="32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3306,10 +3306,10 @@
         <v>35976</v>
       </c>
       <c r="G37" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H37" s="32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3332,10 +3332,10 @@
         <v>37986</v>
       </c>
       <c r="G38" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H38" s="32" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3358,10 +3358,10 @@
         <v>41090</v>
       </c>
       <c r="G39" s="32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H39" s="32" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3382,10 +3382,10 @@
       </c>
       <c r="F40" s="36"/>
       <c r="G40" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H40" s="32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3408,10 +3408,10 @@
         <v>35430</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H41" s="32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3434,10 +3434,10 @@
         <v>38533</v>
       </c>
       <c r="G42" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H42" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3460,10 +3460,10 @@
         <v>42369</v>
       </c>
       <c r="G43" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H43" s="32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3484,10 +3484,10 @@
       </c>
       <c r="F44" s="36"/>
       <c r="G44" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H44" s="32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3894,7 +3894,7 @@
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -4398,7 +4398,7 @@
         <v>124</v>
       </c>
       <c r="C27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D27">
         <v>10</v>
@@ -4690,7 +4690,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="C3" s="34">
         <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" s="34">
         <f t="shared" ref="D3:F16" ca="1" si="0">RANDBETWEEN(1,10)</f>
@@ -4735,11 +4735,11 @@
       </c>
       <c r="E3" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F3" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4747,23 +4747,23 @@
         <v>75</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C4" s="34">
         <f t="shared" ref="C4:C16" ca="1" si="1">RANDBETWEEN(1,10)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D4" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E4" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F4" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4779,15 +4779,15 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E5" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F5" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4795,23 +4795,23 @@
         <v>75</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C6" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E6" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4827,15 +4827,15 @@
       </c>
       <c r="D7" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E7" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4847,19 +4847,19 @@
       </c>
       <c r="C8" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F8" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4867,23 +4867,23 @@
         <v>75</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C9" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D9" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4891,23 +4891,23 @@
         <v>95</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C10" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D10" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E10" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F10" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4915,7 +4915,7 @@
         <v>95</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C11" s="34">
         <v>1</v>
@@ -4939,15 +4939,15 @@
       </c>
       <c r="C12" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D12" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E12" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F12" s="34">
         <f t="shared" ca="1" si="0"/>
@@ -4963,19 +4963,19 @@
       </c>
       <c r="C13" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E13" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F13" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4995,11 +4995,11 @@
       </c>
       <c r="E14" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F14" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5011,19 +5011,19 @@
       </c>
       <c r="C15" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D15" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E15" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F15" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5035,11 +5035,11 @@
       </c>
       <c r="C16" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E16" s="34">
         <f t="shared" ca="1" si="0"/>
@@ -5047,7 +5047,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5055,7 +5055,7 @@
         <v>116</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="34">
         <v>10</v>
@@ -5115,7 +5115,7 @@
         <v>116</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="34">
         <v>1</v>
@@ -5143,11 +5143,11 @@
       </c>
       <c r="D21" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E21" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F21" s="34">
         <v>1</v>
@@ -5158,23 +5158,23 @@
         <v>124</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C22" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E22" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5182,15 +5182,15 @@
         <v>124</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C23" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D23" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E23" s="34">
         <f t="shared" ca="1" si="2"/>
@@ -5198,7 +5198,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5210,19 +5210,19 @@
       </c>
       <c r="C24" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D24" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F24" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5230,23 +5230,23 @@
         <v>132</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C25" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D25" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E25" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F25" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5254,7 +5254,7 @@
         <v>132</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C26" s="34">
         <f t="shared" ca="1" si="2"/>
@@ -5266,11 +5266,11 @@
       </c>
       <c r="E26" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F26" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5282,19 +5282,19 @@
       </c>
       <c r="C27" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D27" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E27" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F27" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5302,23 +5302,23 @@
         <v>132</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C28" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D28" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E28" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F28" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5330,19 +5330,19 @@
       </c>
       <c r="C29" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D29" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F29" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5350,23 +5350,23 @@
         <v>132</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C30" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D30" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E30" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F30" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5374,23 +5374,23 @@
         <v>132</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C31" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E31" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F31" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5616,7 +5616,7 @@
         <v>46569</v>
       </c>
       <c r="C10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D10" t="s">
         <v>161</v>
@@ -5700,10 +5700,10 @@
         <v>45809</v>
       </c>
       <c r="C16" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="D16" s="32" t="s">
         <v>285</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5714,10 +5714,10 @@
         <v>45870</v>
       </c>
       <c r="C17" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="D17" s="32" t="s">
         <v>287</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5728,10 +5728,10 @@
         <v>45931</v>
       </c>
       <c r="C18" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="D18" s="32" t="s">
         <v>289</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5742,10 +5742,10 @@
         <v>45962</v>
       </c>
       <c r="C19" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="D19" s="32" t="s">
         <v>291</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5756,10 +5756,10 @@
         <v>45992</v>
       </c>
       <c r="C20" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="D20" s="32" t="s">
         <v>293</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5770,10 +5770,10 @@
         <v>46023</v>
       </c>
       <c r="C21" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="D21" s="32" t="s">
         <v>295</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5784,10 +5784,10 @@
         <v>46113</v>
       </c>
       <c r="C22" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="D22" s="32" t="s">
         <v>297</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5798,10 +5798,10 @@
         <v>46388</v>
       </c>
       <c r="C23" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="D23" s="32" t="s">
         <v>299</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5812,10 +5812,10 @@
         <v>46569</v>
       </c>
       <c r="C24" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="D24" s="32" t="s">
         <v>301</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5826,10 +5826,10 @@
         <v>46753</v>
       </c>
       <c r="C25" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="D25" s="32" t="s">
         <v>303</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5840,10 +5840,10 @@
         <v>47119</v>
       </c>
       <c r="C26" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="D26" s="32" t="s">
         <v>305</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5854,10 +5854,10 @@
         <v>50041</v>
       </c>
       <c r="C27" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="D27" s="32" t="s">
         <v>307</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5868,10 +5868,10 @@
         <v>53172</v>
       </c>
       <c r="C28" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="D28" s="32" t="s">
         <v>311</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5882,10 +5882,10 @@
         <v>56615</v>
       </c>
       <c r="C29" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="D29" s="32" t="s">
         <v>309</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5896,10 +5896,10 @@
         <v>45809</v>
       </c>
       <c r="C30" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="D30" s="32" t="s">
         <v>369</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5910,10 +5910,10 @@
         <v>45870</v>
       </c>
       <c r="C31" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="D31" s="32" t="s">
         <v>371</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5924,10 +5924,10 @@
         <v>45931</v>
       </c>
       <c r="C32" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="D32" s="32" t="s">
         <v>373</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5938,10 +5938,10 @@
         <v>45962</v>
       </c>
       <c r="C33" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="D33" s="32" t="s">
         <v>375</v>
-      </c>
-      <c r="D33" s="32" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5952,10 +5952,10 @@
         <v>45992</v>
       </c>
       <c r="C34" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="D34" s="32" t="s">
         <v>377</v>
-      </c>
-      <c r="D34" s="32" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5966,10 +5966,10 @@
         <v>46023</v>
       </c>
       <c r="C35" s="32" t="s">
+        <v>378</v>
+      </c>
+      <c r="D35" s="32" t="s">
         <v>379</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5980,10 +5980,10 @@
         <v>46113</v>
       </c>
       <c r="C36" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="D36" s="32" t="s">
         <v>381</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5994,10 +5994,10 @@
         <v>46388</v>
       </c>
       <c r="C37" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="D37" s="32" t="s">
         <v>383</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6008,10 +6008,10 @@
         <v>46569</v>
       </c>
       <c r="C38" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="D38" s="32" t="s">
         <v>385</v>
-      </c>
-      <c r="D38" s="32" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6022,10 +6022,10 @@
         <v>46753</v>
       </c>
       <c r="C39" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="D39" s="32" t="s">
         <v>387</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6036,10 +6036,10 @@
         <v>47119</v>
       </c>
       <c r="C40" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="D40" s="32" t="s">
         <v>389</v>
-      </c>
-      <c r="D40" s="32" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6050,10 +6050,10 @@
         <v>50041</v>
       </c>
       <c r="C41" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="D41" s="32" t="s">
         <v>391</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6064,10 +6064,10 @@
         <v>56615</v>
       </c>
       <c r="C42" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="D42" s="32" t="s">
         <v>393</v>
-      </c>
-      <c r="D42" s="32" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6078,10 +6078,10 @@
         <v>70339</v>
       </c>
       <c r="C43" s="32" t="s">
+        <v>394</v>
+      </c>
+      <c r="D43" s="32" t="s">
         <v>395</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6092,10 +6092,10 @@
         <v>45809</v>
       </c>
       <c r="C44" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="D44" s="32" t="s">
         <v>313</v>
-      </c>
-      <c r="D44" s="32" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6106,10 +6106,10 @@
         <v>45870</v>
       </c>
       <c r="C45" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="D45" s="32" t="s">
         <v>315</v>
-      </c>
-      <c r="D45" s="32" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6120,10 +6120,10 @@
         <v>45931</v>
       </c>
       <c r="C46" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="D46" s="32" t="s">
         <v>317</v>
-      </c>
-      <c r="D46" s="32" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6134,10 +6134,10 @@
         <v>45962</v>
       </c>
       <c r="C47" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="D47" s="32" t="s">
         <v>319</v>
-      </c>
-      <c r="D47" s="32" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6148,10 +6148,10 @@
         <v>45992</v>
       </c>
       <c r="C48" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="D48" s="32" t="s">
         <v>321</v>
-      </c>
-      <c r="D48" s="32" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6162,10 +6162,10 @@
         <v>46023</v>
       </c>
       <c r="C49" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="D49" s="32" t="s">
         <v>323</v>
-      </c>
-      <c r="D49" s="32" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6176,10 +6176,10 @@
         <v>46113</v>
       </c>
       <c r="C50" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="D50" s="32" t="s">
         <v>325</v>
-      </c>
-      <c r="D50" s="32" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6190,10 +6190,10 @@
         <v>46388</v>
       </c>
       <c r="C51" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="D51" s="32" t="s">
         <v>327</v>
-      </c>
-      <c r="D51" s="32" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6204,10 +6204,10 @@
         <v>46569</v>
       </c>
       <c r="C52" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="D52" s="32" t="s">
         <v>329</v>
-      </c>
-      <c r="D52" s="32" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6218,10 +6218,10 @@
         <v>46753</v>
       </c>
       <c r="C53" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="D53" s="32" t="s">
         <v>331</v>
-      </c>
-      <c r="D53" s="32" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6232,10 +6232,10 @@
         <v>47119</v>
       </c>
       <c r="C54" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="D54" s="32" t="s">
         <v>333</v>
-      </c>
-      <c r="D54" s="32" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6246,10 +6246,10 @@
         <v>50041</v>
       </c>
       <c r="C55" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="D55" s="32" t="s">
         <v>335</v>
-      </c>
-      <c r="D55" s="32" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6260,10 +6260,10 @@
         <v>56615</v>
       </c>
       <c r="C56" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="D56" s="32" t="s">
         <v>337</v>
-      </c>
-      <c r="D56" s="32" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6274,10 +6274,10 @@
         <v>62668</v>
       </c>
       <c r="C57" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="D57" s="32" t="s">
         <v>339</v>
-      </c>
-      <c r="D57" s="32" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6288,10 +6288,10 @@
         <v>45809</v>
       </c>
       <c r="C58" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="D58" s="32" t="s">
         <v>341</v>
-      </c>
-      <c r="D58" s="32" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6302,10 +6302,10 @@
         <v>45870</v>
       </c>
       <c r="C59" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="D59" s="32" t="s">
         <v>343</v>
-      </c>
-      <c r="D59" s="32" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6316,10 +6316,10 @@
         <v>45931</v>
       </c>
       <c r="C60" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="D60" s="32" t="s">
         <v>345</v>
-      </c>
-      <c r="D60" s="32" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6330,10 +6330,10 @@
         <v>45962</v>
       </c>
       <c r="C61" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="D61" s="32" t="s">
         <v>347</v>
-      </c>
-      <c r="D61" s="32" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6344,10 +6344,10 @@
         <v>45992</v>
       </c>
       <c r="C62" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="D62" s="32" t="s">
         <v>349</v>
-      </c>
-      <c r="D62" s="32" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6358,10 +6358,10 @@
         <v>46023</v>
       </c>
       <c r="C63" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="D63" s="32" t="s">
         <v>351</v>
-      </c>
-      <c r="D63" s="32" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6372,10 +6372,10 @@
         <v>46113</v>
       </c>
       <c r="C64" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="D64" s="32" t="s">
         <v>353</v>
-      </c>
-      <c r="D64" s="32" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6386,10 +6386,10 @@
         <v>46388</v>
       </c>
       <c r="C65" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D65" s="32" t="s">
         <v>355</v>
-      </c>
-      <c r="D65" s="32" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6400,10 +6400,10 @@
         <v>46569</v>
       </c>
       <c r="C66" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="D66" s="32" t="s">
         <v>357</v>
-      </c>
-      <c r="D66" s="32" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6414,10 +6414,10 @@
         <v>46753</v>
       </c>
       <c r="C67" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="D67" s="32" t="s">
         <v>359</v>
-      </c>
-      <c r="D67" s="32" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6428,10 +6428,10 @@
         <v>47119</v>
       </c>
       <c r="C68" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="D68" s="32" t="s">
         <v>361</v>
-      </c>
-      <c r="D68" s="32" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6442,10 +6442,10 @@
         <v>50041</v>
       </c>
       <c r="C69" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="D69" s="32" t="s">
         <v>363</v>
-      </c>
-      <c r="D69" s="32" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6456,10 +6456,10 @@
         <v>56615</v>
       </c>
       <c r="C70" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="D70" s="32" t="s">
         <v>365</v>
-      </c>
-      <c r="D70" s="32" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6470,10 +6470,10 @@
         <v>61573</v>
       </c>
       <c r="C71" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="D71" s="32" t="s">
         <v>367</v>
-      </c>
-      <c r="D71" s="32" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/CV_Dukay.xlsx
+++ b/CV_Dukay.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://trw1-my.sharepoint.com/personal/aladar_dukay_zf_com/Documents/Desktop/CV new/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{9533C08D-7DFA-48E8-AA5B-9907397052B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{217018FF-63BB-4C58-B4E1-EED448366DA8}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{9533C08D-7DFA-48E8-AA5B-9907397052B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3D8EC6E-3E07-4735-806F-7F5B77409451}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15480" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Personal" sheetId="1" r:id="rId1"/>
@@ -4727,19 +4727,19 @@
       </c>
       <c r="C3" s="34">
         <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D3" s="34">
         <f t="shared" ref="D3:F16" ca="1" si="0">RANDBETWEEN(1,10)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E3" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F3" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="E4" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4775,19 +4775,19 @@
       </c>
       <c r="C5" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D5" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F5" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4799,7 +4799,7 @@
       </c>
       <c r="C6" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" s="34">
         <f t="shared" ca="1" si="0"/>
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E6" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F6" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4823,19 +4823,19 @@
       </c>
       <c r="C7" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D7" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F7" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4847,7 +4847,7 @@
       </c>
       <c r="C8" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D8" s="34">
         <f t="shared" ca="1" si="0"/>
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E8" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F8" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4875,11 +4875,11 @@
       </c>
       <c r="D9" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E9" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F9" s="34">
         <f t="shared" ca="1" si="0"/>
@@ -4895,19 +4895,19 @@
       </c>
       <c r="C10" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E10" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F10" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4939,19 +4939,19 @@
       </c>
       <c r="C12" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D12" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E12" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F12" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4963,19 +4963,19 @@
       </c>
       <c r="C13" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4991,15 +4991,15 @@
       </c>
       <c r="D14" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E14" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F14" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5011,19 +5011,19 @@
       </c>
       <c r="C15" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E15" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F15" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5035,19 +5035,19 @@
       </c>
       <c r="C16" s="34">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E16" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F16" s="34">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5139,15 +5139,15 @@
       </c>
       <c r="C21" s="34">
         <f t="shared" ref="C21:F31" ca="1" si="2">RANDBETWEEN(1,10)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E21" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F21" s="34">
         <v>1</v>
@@ -5162,19 +5162,19 @@
       </c>
       <c r="C22" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E22" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F22" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5186,19 +5186,19 @@
       </c>
       <c r="C23" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D23" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E23" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F23" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5210,19 +5210,19 @@
       </c>
       <c r="C24" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D24" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E24" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F24" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5234,15 +5234,15 @@
       </c>
       <c r="C25" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D25" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E25" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F25" s="34">
         <f t="shared" ca="1" si="2"/>
@@ -5258,19 +5258,19 @@
       </c>
       <c r="C26" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E26" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F26" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5282,19 +5282,19 @@
       </c>
       <c r="C27" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E27" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F27" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5306,19 +5306,19 @@
       </c>
       <c r="C28" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D28" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F28" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5334,11 +5334,11 @@
       </c>
       <c r="D29" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E29" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F29" s="34">
         <f t="shared" ca="1" si="2"/>
@@ -5358,7 +5358,7 @@
       </c>
       <c r="D30" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E30" s="34">
         <f t="shared" ca="1" si="2"/>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5378,19 +5378,19 @@
       </c>
       <c r="C31" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D31" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E31" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F31" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5515,7 +5515,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="9">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="C3" t="s">
         <v>150</v>
@@ -5711,7 +5711,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="36">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>286</v>
@@ -5907,7 +5907,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="36">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>370</v>
@@ -6103,7 +6103,7 @@
         <v>4</v>
       </c>
       <c r="B45" s="36">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="C45" s="32" t="s">
         <v>314</v>
@@ -6299,7 +6299,7 @@
         <v>5</v>
       </c>
       <c r="B59" s="36">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="C59" s="32" t="s">
         <v>342</v>
